--- a/top_countries.xlsx
+++ b/top_countries.xlsx
@@ -14,12 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
 </sst>
 </file>
@@ -377,81 +404,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>23315080560000</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2.054483241786034</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>1810955871380.98</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.448967947334511</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>679444832854.295</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.88606090007619</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>504182603275.542</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7.458876735329642</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>488526545878.891</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.963239534456168</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>398303272764.46</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.068636269538928</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>396986899888.351</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2.741827932410388</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>317058508651.76</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.26021730402207</v>
       </c>
     </row>
